--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/workspace/heal-qa-automation/Automation/runs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6263" yWindow="1238" windowWidth="28823" windowHeight="14543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Parameters" sheetId="4" r:id="rId2"/>
     <sheet name="Configs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -142,9 +147,6 @@
     <t>ENV</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>checkDashboardElements</t>
   </si>
   <si>
@@ -158,17 +160,20 @@
   <si>
     <t>ops.web.tests.DashboardTest</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,13 +188,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,7 +203,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,14 +211,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -221,7 +226,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -302,14 +307,14 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -659,23 +664,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="36.1328125" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.65" thickBot="1">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,26 +700,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -728,22 +733,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="3"/>
+    <col min="3" max="3" width="12.1640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -751,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -759,15 +764,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -775,7 +780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -783,7 +788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -791,7 +796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -802,7 +807,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
@@ -810,7 +815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -818,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -826,7 +831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -834,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -842,103 +847,103 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
     </row>
   </sheetData>
@@ -966,7 +971,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Configs!$A$2:$A$10</xm:f>
           </x14:formula1>
@@ -979,20 +984,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>

--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>@ondemand.saucelabs.com:443/wd/hub</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>macOS 10.12</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>remote</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -702,24 +702,24 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -798,7 +798,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>IF(B8="QA",Configs!B2,IF(B8="DEV",Configs!B3,IF(B8="PROD",Configs!B4,"")))</f>
@@ -809,10 +809,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -841,10 +841,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -999,34 +999,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/workspace/heal-qa-automation/Automation/runs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
+    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Execute</t>
   </si>
@@ -162,7 +162,25 @@
     <t>Y</t>
   </si>
   <si>
-    <t>remote</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ops.web.tests.VisitDetailsModalTest</t>
+  </si>
+  <si>
+    <t>changeProviderManualTimeSet</t>
+  </si>
+  <si>
+    <t>startVisit</t>
+  </si>
+  <si>
+    <t>endVisit</t>
+  </si>
+  <si>
+    <t>editVisitSymptoms</t>
+  </si>
+  <si>
+    <t>refundVisitTotal</t>
   </si>
 </sst>
 </file>
@@ -665,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -722,6 +740,61 @@
         <v>35</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:F6">
     <sortCondition ref="B2:B6"/>
@@ -736,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>ops.web.tests.VisitDetailsModalTest</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>refundVisitTotal</t>
+  </si>
+  <si>
+    <t>remote</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -745,10 +745,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -756,10 +756,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -767,10 +767,10 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -778,10 +778,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -789,10 +789,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -834,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
+    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Execute</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>remote</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -685,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -742,7 +745,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -753,7 +756,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -764,7 +767,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -775,7 +778,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
@@ -786,7 +789,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -809,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Execute</t>
   </si>
@@ -165,9 +165,6 @@
     <t>local</t>
   </si>
   <si>
-    <t>ops.web.tests.VisitDetailsModalTest</t>
-  </si>
-  <si>
     <t>changeProviderManualTimeSet</t>
   </si>
   <si>
@@ -180,7 +177,13 @@
     <t>editVisitSymptoms</t>
   </si>
   <si>
-    <t>refundVisitTotal</t>
+    <t>ops.web.tests.VisitsE2E</t>
+  </si>
+  <si>
+    <t>refundVisitPartial</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,7 +723,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -731,7 +734,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -745,10 +748,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -756,10 +759,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -767,10 +770,10 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -778,10 +781,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -789,7 +792,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>

--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Execute</t>
   </si>
@@ -183,7 +183,25 @@
     <t>refundVisitPartial</t>
   </si>
   <si>
-    <t>N</t>
+    <t>ops.web.tests.VisitDetailsModalTest</t>
+  </si>
+  <si>
+    <t>changeProviderNoTime</t>
+  </si>
+  <si>
+    <t>cancelVisit</t>
+  </si>
+  <si>
+    <t>ops.web.tests.VisitsTest</t>
+  </si>
+  <si>
+    <t>bookVisitWithInsurance</t>
+  </si>
+  <si>
+    <t>bookVisitWithCreditCard</t>
+  </si>
+  <si>
+    <t>bookVisitWithPromoCode</t>
   </si>
 </sst>
 </file>
@@ -686,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -723,7 +741,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -734,7 +752,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -796,6 +814,61 @@
       </c>
       <c r="D8" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>changeProviderManualTimeSet</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>bookVisitWithPromoCode</t>
+  </si>
+  <si>
+    <t>remote</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -766,10 +766,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -777,10 +777,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -788,10 +788,10 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -799,10 +799,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -810,10 +810,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -821,10 +821,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -832,10 +832,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -843,10 +843,10 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,10 +854,10 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -865,10 +865,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -910,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="1240" windowWidth="28820" windowHeight="14540"/>
+    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Execute</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>bookVisitWithPromoCode</t>
+  </si>
+  <si>
+    <t>PatientUserName</t>
+  </si>
+  <si>
+    <t>PatientPassword</t>
+  </si>
+  <si>
+    <t>vahan+qa@heal.com</t>
+  </si>
+  <si>
+    <t>Heal4325!</t>
   </si>
 </sst>
 </file>
@@ -323,7 +335,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -332,8 +344,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -344,15 +363,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -706,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -885,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -997,10 +1024,20 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1115,8 +1152,11 @@
       <formula>NOT(ISERROR(SEARCH("doNotRunInPROD",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Automation/runs/ops_web_run.xlsx
+++ b/Automation/runs/ops_web_run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540" activeTab="1"/>
+    <workbookView xWindow="3480" yWindow="3020" windowWidth="28820" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Execute</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Heal4325!</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -779,7 +782,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -790,7 +793,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -801,7 +804,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -812,7 +815,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -823,7 +826,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -834,7 +837,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -845,7 +848,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -856,7 +859,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -878,7 +881,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -889,7 +892,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -912,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
